--- a/biology/Histoire de la zoologie et de la botanique/Jean_Baptiste_Louis_Pierre/Jean_Baptiste_Louis_Pierre.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Baptiste_Louis_Pierre/Jean_Baptiste_Louis_Pierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Baptiste Louis Pierre est un botaniste français, né le 21 octobre 1833 à Champ Borne, quartier de Saint-André et mort le 30 octobre 1905 à Paris.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études à Paris et part en 1861 à La Réunion avant d’atteindre l’Inde où il travaille dans le jardin botanique de Calcutta. Il dirige, de 1865 à 1877, le jardin botanique et zoologique de Saïgon. Pierre réalise de nombreuses explorations scientifiques dans la région. On lui doit notamment une Flore forestière de la Cochinchine (1880-1907)[1], un article « Sur les plantes à caoutchouc de l’Indochine » (publié dans la Revue des cultures coloniales, 1903) et la partie sur les Sapotacées dans les Notes botaniques (1890-1891).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études à Paris et part en 1861 à La Réunion avant d’atteindre l’Inde où il travaille dans le jardin botanique de Calcutta. Il dirige, de 1865 à 1877, le jardin botanique et zoologique de Saïgon. Pierre réalise de nombreuses explorations scientifiques dans la région. On lui doit notamment une Flore forestière de la Cochinchine (1880-1907), un article « Sur les plantes à caoutchouc de l’Indochine » (publié dans la Revue des cultures coloniales, 1903) et la partie sur les Sapotacées dans les Notes botaniques (1890-1891).
 Adolf Engler (1844-1930) lui dédie le genre Pierreodendron (famille des Simaroubaceae) et le genre Pierrina (famille des Scytopetalaceae), Auguste Chevalier (1873-1956) le genre Pierreodendron (famille des Sapotaceae) et Henry Fletcher Hance (1827-1886) le genre Pierrea (famille des Flacourtiaceae).
-Il est également nommé en 1878 Chevalier de la Légion d'honneur[2].
+Il est également nommé en 1878 Chevalier de la Légion d'honneur.
 </t>
         </is>
       </c>
